--- a/data/evaluation/evaluation_South_Winter_Potatoes.xlsx
+++ b/data/evaluation/evaluation_South_Winter_Potatoes.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7025.059938558756</v>
+        <v>7022.527795701614</v>
       </c>
       <c r="C3" t="n">
-        <v>168966103.9293555</v>
+        <v>168965542.3000698</v>
       </c>
       <c r="D3" t="n">
-        <v>12998.69623959863</v>
+        <v>12998.67463628772</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1356288346545509</v>
+        <v>0.1356317077524616</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7004.748436042943</v>
+        <v>7103.456941333362</v>
       </c>
       <c r="C4" t="n">
-        <v>163329722.2106556</v>
+        <v>171818529.3877388</v>
       </c>
       <c r="D4" t="n">
-        <v>12780.05172957667</v>
+        <v>13107.95672054721</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1644625813127646</v>
+        <v>0.1210368291564859</v>
       </c>
     </row>
     <row r="5">
